--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,3719 @@
         <v>516.4189898967743</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10277.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10509.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1846790313720703</v>
+      </c>
+      <c r="O9" t="n">
+        <v>364.0409667491913</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13423.52</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13655.52</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2444982528686523</v>
+      </c>
+      <c r="O10" t="n">
+        <v>469.5366129875183</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11488.64</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11720.64</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.2874135971069336</v>
+      </c>
+      <c r="O11" t="n">
+        <v>409.3755741119385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11265.92</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11497.92</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2268075942993164</v>
+      </c>
+      <c r="O12" t="n">
+        <v>405.1038975715637</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13868.96</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14100.96</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.270390510559082</v>
+      </c>
+      <c r="O13" t="n">
+        <v>498.0701189041138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>15033.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>15265.6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20.54812908172607</v>
+      </c>
+      <c r="O14" t="n">
+        <v>623.2201700210571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14745.92</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14977.92</v>
+      </c>
+      <c r="N15" t="n">
+        <v>30.6309700012207</v>
+      </c>
+      <c r="O15" t="n">
+        <v>617.0653064250946</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13576.64</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13808.64</v>
+      </c>
+      <c r="N16" t="n">
+        <v>40.60089588165283</v>
+      </c>
+      <c r="O16" t="n">
+        <v>592.1435554027557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13692.64</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13924.64</v>
+      </c>
+      <c r="N17" t="n">
+        <v>20.51770687103271</v>
+      </c>
+      <c r="O17" t="n">
+        <v>595.9949927330017</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6472.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2381324768066406</v>
+      </c>
+      <c r="O18" t="n">
+        <v>48.44438409805298</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6565.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2155303955078125</v>
+      </c>
+      <c r="O19" t="n">
+        <v>48.74660038948059</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2195835113525391</v>
+      </c>
+      <c r="O20" t="n">
+        <v>47.24473428726196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7377.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2147674560546875</v>
+      </c>
+      <c r="O21" t="n">
+        <v>52.17176747322083</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5892.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2631187438964844</v>
+      </c>
+      <c r="O22" t="n">
+        <v>46.04696464538574</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5243.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>928</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3882408142089843</v>
+      </c>
+      <c r="O23" t="n">
+        <v>39.51736497879028</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5336</v>
+      </c>
+      <c r="M24" t="n">
+        <v>928</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3313064575195312</v>
+      </c>
+      <c r="O24" t="n">
+        <v>39.40821051597595</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4872</v>
+      </c>
+      <c r="M25" t="n">
+        <v>928</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3290176391601562</v>
+      </c>
+      <c r="O25" t="n">
+        <v>37.41728019714355</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5521.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>928</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.307774543762207</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40.12324023246765</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5312.8</v>
+      </c>
+      <c r="M27" t="n">
+        <v>928</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3163576126098632</v>
+      </c>
+      <c r="O27" t="n">
+        <v>39.3200843334198</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5544.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>928</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2315640449523926</v>
+      </c>
+      <c r="O28" t="n">
+        <v>40.81043910980225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5382.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>928</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2305507659912109</v>
+      </c>
+      <c r="O29" t="n">
+        <v>39.91244006156921</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5336</v>
+      </c>
+      <c r="M30" t="n">
+        <v>928</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2601146697998047</v>
+      </c>
+      <c r="O30" t="n">
+        <v>39.71344065666199</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5104</v>
+      </c>
+      <c r="M31" t="n">
+        <v>928</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2635717391967773</v>
+      </c>
+      <c r="O31" t="n">
+        <v>38.59263062477112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5568</v>
+      </c>
+      <c r="M32" t="n">
+        <v>928</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.3129243850708008</v>
+      </c>
+      <c r="O32" t="n">
+        <v>40.61320352554321</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3967.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>696</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2913475036621094</v>
+      </c>
+      <c r="O33" t="n">
+        <v>29.85045790672302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3758.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>696</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2489884694417318</v>
+      </c>
+      <c r="O34" t="n">
+        <v>28.8435332775116</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4222.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>696</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.2530415852864583</v>
+      </c>
+      <c r="O35" t="n">
+        <v>30.85357809066772</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3990.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>696</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2942879994710286</v>
+      </c>
+      <c r="O36" t="n">
+        <v>29.84722542762756</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4408</v>
+      </c>
+      <c r="M37" t="n">
+        <v>696</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2408027648925781</v>
+      </c>
+      <c r="O37" t="n">
+        <v>31.75867009162903</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2737.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>464</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.3483295440673828</v>
+      </c>
+      <c r="O38" t="n">
+        <v>20.6078245639801</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2528.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>464</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3106594085693359</v>
+      </c>
+      <c r="O39" t="n">
+        <v>19.9017539024353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2969.6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>464</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2537965774536133</v>
+      </c>
+      <c r="O40" t="n">
+        <v>21.71588826179504</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2760.8</v>
+      </c>
+      <c r="M41" t="n">
+        <v>464</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3614425659179688</v>
+      </c>
+      <c r="O41" t="n">
+        <v>20.9068455696106</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2691.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>464</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2259016036987305</v>
+      </c>
+      <c r="O42" t="n">
+        <v>20.4991455078125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>37143.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5800</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2275943756103516</v>
+      </c>
+      <c r="O43" t="n">
+        <v>252.6026282310486</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>35287.2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5800</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.2421092987060547</v>
+      </c>
+      <c r="O44" t="n">
+        <v>245.912276506424</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>25</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>38628</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5800</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2549457550048828</v>
+      </c>
+      <c r="O45" t="n">
+        <v>260.290308713913</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>25</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>36215.2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5800</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2406120300292969</v>
+      </c>
+      <c r="O46" t="n">
+        <v>249.5201561450958</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" t="n">
+        <v>25</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>34544.8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5800</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2680206298828125</v>
+      </c>
+      <c r="O47" t="n">
+        <v>243.1733455657959</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>24429.6</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3944</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.2643360811121324</v>
+      </c>
+      <c r="O48" t="n">
+        <v>169.9887833595276</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>17</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>22828.8</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3944</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.244757708381204</v>
+      </c>
+      <c r="O49" t="n">
+        <v>163.7490363121033</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>17</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>26146.4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3944</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2565243664909811</v>
+      </c>
+      <c r="O50" t="n">
+        <v>176.9078857898712</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>17</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>25798.4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3944</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.2566365634693819</v>
+      </c>
+      <c r="O51" t="n">
+        <v>176.8099102973938</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>24220.8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3944</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2751771141501034</v>
+      </c>
+      <c r="O52" t="n">
+        <v>169.7612571716309</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>17353.6</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2517883594219501</v>
+      </c>
+      <c r="O53" t="n">
+        <v>125.2413861751556</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>13</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>19279.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.3094673156738281</v>
+      </c>
+      <c r="O54" t="n">
+        <v>133.1806571483612</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>17168</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.2625171954815204</v>
+      </c>
+      <c r="O55" t="n">
+        <v>124.2376291751862</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>16448.8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2744197845458984</v>
+      </c>
+      <c r="O56" t="n">
+        <v>120.9296836853027</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>15404.8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2535856687105619</v>
+      </c>
+      <c r="O57" t="n">
+        <v>117.40789270401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>13200.8</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2320</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2931118011474609</v>
+      </c>
+      <c r="O58" t="n">
+        <v>95.59279155731201</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>13618.4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2320</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3058671951293945</v>
+      </c>
+      <c r="O59" t="n">
+        <v>97.70456194877625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>13386.4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2320</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.3070592880249023</v>
+      </c>
+      <c r="O60" t="n">
+        <v>96.90963268280029</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>50</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14152</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2320</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.2618312835693359</v>
+      </c>
+      <c r="O61" t="n">
+        <v>99.91436171531677</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>50</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>13757.6</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2320</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2885103225708008</v>
+      </c>
+      <c r="O62" t="n">
+        <v>99.0054395198822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>13363.2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2088</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.318606694539388</v>
+      </c>
+      <c r="O63" t="n">
+        <v>93.58672118186951</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>50</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>12528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2088</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.4094176822238498</v>
+      </c>
+      <c r="O64" t="n">
+        <v>89.76648473739624</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>50</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>12597.6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2088</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2898375193277995</v>
+      </c>
+      <c r="O65" t="n">
+        <v>89.55991196632385</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>50</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>11553.6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2088</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2785523732503255</v>
+      </c>
+      <c r="O66" t="n">
+        <v>85.04397368431091</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>50</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>12365.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2088</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.3243817223442926</v>
+      </c>
+      <c r="O67" t="n">
+        <v>88.5609142780304</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>50</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>11762.4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1856</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2809464931488037</v>
+      </c>
+      <c r="O68" t="n">
+        <v>81.81311464309692</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>50</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>11112.8</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1856</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.2861320972442627</v>
+      </c>
+      <c r="O69" t="n">
+        <v>78.60327744483948</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="n">
+        <v>50</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>9396</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1856</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.2799928188323975</v>
+      </c>
+      <c r="O70" t="n">
+        <v>72.58265399932861</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>50</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>11182.4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1856</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.3376007080078125</v>
+      </c>
+      <c r="O71" t="n">
+        <v>80.01066422462463</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>50</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>11321.6</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1856</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.3647506237030029</v>
+      </c>
+      <c r="O72" t="n">
+        <v>80.50885796546936</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>50</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8630.4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1624</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.3528594970703125</v>
+      </c>
+      <c r="O73" t="n">
+        <v>64.84017848968506</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>50</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>9024.799999999999</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1624</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.3641673496791294</v>
+      </c>
+      <c r="O74" t="n">
+        <v>66.44641184806824</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>10208</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1624</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.2920627593994141</v>
+      </c>
+      <c r="O75" t="n">
+        <v>71.85657668113708</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>50</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>8468</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1624</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.3152234213692801</v>
+      </c>
+      <c r="O76" t="n">
+        <v>63.92222380638123</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>50</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>9952.799999999999</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1624</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.3927435193743025</v>
+      </c>
+      <c r="O77" t="n">
+        <v>70.7365243434906</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>50</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8004</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.3647009531656901</v>
+      </c>
+      <c r="O78" t="n">
+        <v>59.08957362174988</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>50</v>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7493.6</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.4412333170572917</v>
+      </c>
+      <c r="O79" t="n">
+        <v>56.06455707550049</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>50</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7864.8</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.3515879313151042</v>
+      </c>
+      <c r="O80" t="n">
+        <v>58.16817617416382</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>50</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>7818.4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.3744761149088542</v>
+      </c>
+      <c r="O81" t="n">
+        <v>57.47429513931274</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>50</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8305.6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.3182093302408854</v>
+      </c>
+      <c r="O82" t="n">
+        <v>59.6797354221344</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>50</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6171.2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.3541469573974609</v>
+      </c>
+      <c r="O83" t="n">
+        <v>47.25495409965515</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>50</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6124.8</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.3588199615478516</v>
+      </c>
+      <c r="O84" t="n">
+        <v>47.04626393318176</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>50</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7400.8</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.4176139831542969</v>
+      </c>
+      <c r="O85" t="n">
+        <v>52.57362699508667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>50</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7331.2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.3506183624267578</v>
+      </c>
+      <c r="O86" t="n">
+        <v>52.06589293479919</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>50</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6867.2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.4030227661132812</v>
+      </c>
+      <c r="O87" t="n">
+        <v>50.35574793815613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,15 +510,40 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>simulation time(sec)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>total prepare time(sec)</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>total upload time(sec)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>total download time(sec)</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>total network delay time(sec)</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>elapsed time(secs)</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>average upload data(bytes)</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>average download data(bytes)</t>
         </is>
@@ -1181,6 +1206,1192 @@
       </c>
       <c r="S12" s="3" t="n">
         <v>4872</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0.01500781059265137</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>15.00781059265137</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>11.27304625511169</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>1438.4</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0.01180830001831055</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>11.80830001831055</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>10.7666232585907</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>1322.4</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01765236854553223</v>
+      </c>
+      <c r="P15" t="n">
+        <v>17.65236854553223</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.01765236854553223</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0002439022064208984</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>10.77872061729431</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>1322.4</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>50</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01773009300231933</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17.73009300231934</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01773009300231933</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0004365444183349609</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>11.17525696754456</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>1415.2</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0.02830353736877441</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>28.30353736877441</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0.02830353736877441</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0.0008208751678466797</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0.018125</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>11.69054293632507</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>1531.2</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0.02176892280578613</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>21.76892280578613</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>0.02176892280578613</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0.0005235671997070312</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>11.48295402526855</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>1484.8</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0.06074723243713379</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>20.2490774790446</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>0.06074723243713379</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>0.001528263092041016</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0.0192578125</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>30.88050556182861</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>4152.8</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0.07454626083374022</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>18.63656520843506</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>0.07454626083374022</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>0.001312494277954102</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>0.047578125</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0.0237890625</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>41.54148554801941</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>5684</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0.1168572044372559</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>19.47620073954264</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>0.1168572044372559</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0.001668691635131836</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0.074765625</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0.0373828125</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>60.56818532943726</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>8282.4</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>0.1316456699371338</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>16.45570874214172</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>0.1316456699371338</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>0.001939535140991211</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0.08382812499999999</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0.04191406249999999</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>81.28983163833618</v>
+      </c>
+      <c r="W22" s="3" t="n">
+        <v>11252</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>50</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>15.60525417327881</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>0.09363152503967284</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>0.001858949661254883</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>0.05890625</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>0.029453125</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>56.23789477348328</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>7284.8</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>17.94268290201823</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>0.1076560974121094</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>0.001960992813110352</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>0.06796874999999999</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>0.033984375</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>61.45747995376587</v>
+      </c>
+      <c r="W24" s="3" t="n">
+        <v>8491.200000000001</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>50</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>0.1212155151367187</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>17.31650216238839</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0.1212155151367187</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0.002006292343139648</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0.07703125</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0.038515625</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>67.21585321426392</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>8908.799999999999</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>50</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>0.1387064743041992</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>17.33830928802491</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>0.1387064743041992</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>0.001814842224121094</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0.08835937499999999</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0.0441796875</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>73.38287830352783</v>
+      </c>
+      <c r="W26" s="3" t="n">
+        <v>9442.4</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>50</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>3.200176239013671</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>0.0224012336730957</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0.002209186553955078</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0.010875</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0.005437500000000001</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>72.8325731754303</v>
+      </c>
+      <c r="W27" s="3" t="n">
+        <v>10208</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>2.603159495762417</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>0.01822211647033692</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>0.001459598541259766</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0.008382812500000001</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0.004191406250000001</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>68.91144251823425</v>
+      </c>
+      <c r="W28" s="3" t="n">
+        <v>9303.200000000001</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <v>1624</v>
       </c>
     </row>
   </sheetData>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2394,6 +2394,766 @@
         <v>1624</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>25</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>6.626655578613283</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>0.1656663894653321</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>0.1051111221313477</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>0.033984375</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>0.0169921875</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>250.0904595851898</v>
+      </c>
+      <c r="W29" s="3" t="n">
+        <v>34800</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>25</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>2.530444564819336</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>0.06326111412048341</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>0.005526542663574219</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0.0323984375</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>0.01619921875</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>248.5631430149078</v>
+      </c>
+      <c r="W30" s="3" t="n">
+        <v>34637.6</v>
+      </c>
+      <c r="X30" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>2.014298171997071</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>0.05035745429992678</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>0.004267692565917969</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0.02469531250000001</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0.01234765625000001</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>230.5433888435364</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>30368.8</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>2.202645721435548</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>0.05506614303588871</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>0.00538945198059082</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0.02673437500000001</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0.0133671875</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>241.3482162952423</v>
+      </c>
+      <c r="W32" s="3" t="n">
+        <v>32897.6</v>
+      </c>
+      <c r="X32" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>25</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>2.452774810791017</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>0.06131937026977542</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>0.004368305206298828</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0.0305859375</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0.01529296875</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>252.8438148498535</v>
+      </c>
+      <c r="W33" s="3" t="n">
+        <v>35612</v>
+      </c>
+      <c r="X33" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>2.644777450561524</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>0.0661194362640381</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>0.004470109939575195</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0.0344375</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0.01721875</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>249.5987706184387</v>
+      </c>
+      <c r="W34" s="3" t="n">
+        <v>34846.4</v>
+      </c>
+      <c r="X34" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>2.336370697021485</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>0.05840926742553714</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>0.004834413528442383</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>247.5010950565338</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>34289.6</v>
+      </c>
+      <c r="X35" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>50</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>25</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>2.427492904663087</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>0.06068732261657717</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0.005136966705322266</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0.0305859375</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0.01529296875</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>248.1834609508514</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>34452</v>
+      </c>
+      <c r="X36" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>25</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>2.30508628845215</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>0.05762715721130374</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>0.005051612854003906</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0.0287734375</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>0.01438671875</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>237.5315606594086</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>31946.4</v>
+      </c>
+      <c r="X37" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>25</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>2.195621032714845</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>0.05489052581787111</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>0.005225181579589844</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>0.02696093750000001</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>0.01348046875</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>241.7475757598877</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>32920.8</v>
+      </c>
+      <c r="X38" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3154,6 +3154,5402 @@
         <v>5800</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>25</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>1.558725662231445</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>0.03896814155578612</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>0.004227638244628906</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>0.0178984375</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>0.008949218750000001</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>207.5391006469727</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>25032.8</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>25</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>1.809964904785156</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>0.04524912261962891</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>0.004318475723266602</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>0.02197656250000001</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>0.01098828125</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>224.3767602443695</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>28930.4</v>
+      </c>
+      <c r="X40" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>50</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>25</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>2.324604492187501</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>0.05811511230468752</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>0.004858732223510742</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>0.0296796875</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>0.01483984375</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>212.9890966415405</v>
+      </c>
+      <c r="W41" s="3" t="n">
+        <v>26239.2</v>
+      </c>
+      <c r="X41" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>25</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>2.177306976318361</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>0.05443267440795901</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>0.00411224365234375</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>0.0278671875</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>0.01393359375</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>231.7380096912384</v>
+      </c>
+      <c r="W42" s="3" t="n">
+        <v>30693.6</v>
+      </c>
+      <c r="X42" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>25</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>1.75287368774414</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>0.04382184219360351</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>0.004659652709960938</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>0.02061718750000001</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>0.01030859375</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>213.931743144989</v>
+      </c>
+      <c r="W43" s="3" t="n">
+        <v>26471.2</v>
+      </c>
+      <c r="X43" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>25</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>1.71500503540039</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>0.04287512588500975</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>0.004517555236816406</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>0.02016406250000001</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>0.01008203125000001</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>208.503080368042</v>
+      </c>
+      <c r="W44" s="3" t="n">
+        <v>25264.8</v>
+      </c>
+      <c r="X44" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>16</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>25</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>1.956535873413086</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>0.04891339683532715</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>0.004440784454345703</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>0.02424218750000001</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>0.01212109375000001</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>210.4383463859558</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>25682.4</v>
+      </c>
+      <c r="X45" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>25</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>1.867055740356445</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0.04667639350891113</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>0.004765510559082031</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>0.022203125</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>0.0111015625</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2" t="n">
+        <v>209.5253546237946</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>25473.6</v>
+      </c>
+      <c r="X46" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>32</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>26</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>1.894734749427209</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>0.04926310348510744</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>0.004965305328369141</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>0.02356250000000001</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>0.01178125000000001</v>
+      </c>
+      <c r="U47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>233.3582057952881</v>
+      </c>
+      <c r="W47" s="3" t="n">
+        <v>30160</v>
+      </c>
+      <c r="X47" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>32</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>26</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>1.945850078876203</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>0.05059210205078127</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>0.004936456680297852</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>0.02424218750000001</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>0.01212109375000001</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>223.5904417037964</v>
+      </c>
+      <c r="W48" s="3" t="n">
+        <v>27816.8</v>
+      </c>
+      <c r="X48" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>13</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>2.042694238516001</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>0.02655502510070801</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>0.00221705436706543</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>0.0126875</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>0.006343750000000001</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>115.1678185462952</v>
+      </c>
+      <c r="W49" s="3" t="n">
+        <v>14569.6</v>
+      </c>
+      <c r="X49" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>13</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>2.391949726985052</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>0.03109534645080567</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>0.002772092819213867</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>0.0151796875</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>0.007589843749999999</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>108.5673050880432</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>13015.2</v>
+      </c>
+      <c r="X50" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>13</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>1.920413970947266</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>0.02496538162231446</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>0.002683877944946289</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>0.005664062500000001</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>111.9772307872772</v>
+      </c>
+      <c r="W51" s="3" t="n">
+        <v>13827.2</v>
+      </c>
+      <c r="X51" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>13</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>2.029555394099309</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>0.02638422012329102</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>0.003031492233276367</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>0.00623046875</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>117.7062900066376</v>
+      </c>
+      <c r="W52" s="3" t="n">
+        <v>15149.6</v>
+      </c>
+      <c r="X52" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>13</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>2.025300539456881</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>0.02632890701293945</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>0.002719402313232422</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>0.006230468750000002</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2" t="n">
+        <v>109.9613635540009</v>
+      </c>
+      <c r="W53" s="3" t="n">
+        <v>13340</v>
+      </c>
+      <c r="X53" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>13</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>1.84380003122183</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>0.02396940040588379</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>0.003621578216552734</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>0.009968749999999998</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>0.004984374999999999</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>111.4780843257904</v>
+      </c>
+      <c r="W54" s="3" t="n">
+        <v>13688</v>
+      </c>
+      <c r="X54" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>16</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>13</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>2.154226596538837</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0.02800494575500488</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>0.003350496292114258</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>0.0129140625</v>
+      </c>
+      <c r="T55" s="1" t="n">
+        <v>0.006457031250000001</v>
+      </c>
+      <c r="U55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>115.415798664093</v>
+      </c>
+      <c r="W55" s="3" t="n">
+        <v>14592.8</v>
+      </c>
+      <c r="X55" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>16</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>13</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>2.106758851271409</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>0.02738786506652832</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>0.002806186676025391</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>0.012234375</v>
+      </c>
+      <c r="T56" s="1" t="n">
+        <v>0.0061171875</v>
+      </c>
+      <c r="U56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2" t="n">
+        <v>117.6162369251251</v>
+      </c>
+      <c r="W56" s="3" t="n">
+        <v>15126.4</v>
+      </c>
+      <c r="X56" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>32</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>13</v>
+      </c>
+      <c r="O57" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>2.082293437077449</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>0.02706981468200684</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>0.003273725509643555</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>0.012234375</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>0.0061171875</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>117.600691318512</v>
+      </c>
+      <c r="W57" s="3" t="n">
+        <v>15126.4</v>
+      </c>
+      <c r="X57" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>32</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>13</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>2.029427014864408</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>0.02638255119323731</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>0.002503633499145508</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>0.0124609375</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>0.006230468750000001</v>
+      </c>
+      <c r="U58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>104.7241959571838</v>
+      </c>
+      <c r="W58" s="3" t="n">
+        <v>12133.6</v>
+      </c>
+      <c r="X58" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>25</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>1.608566818237304</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>0.04021417045593261</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>0.004120826721191406</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>0.018578125</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>0.009289062500000002</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>207.6979928016663</v>
+      </c>
+      <c r="W59" s="3" t="n">
+        <v>25102.4</v>
+      </c>
+      <c r="X59" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>25</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>2.053570861816407</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>0.05133927154541017</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0.004601955413818359</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>0.02582812500000001</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>0.0129140625</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2" t="n">
+        <v>221.1801645755768</v>
+      </c>
+      <c r="W60" s="3" t="n">
+        <v>28164.8</v>
+      </c>
+      <c r="X60" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>50</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>25</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>2.128471069335938</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>0.05321177673339846</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>0.003631353378295898</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>0.02741406250000001</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>0.01370703125</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2" t="n">
+        <v>231.9154946804047</v>
+      </c>
+      <c r="W61" s="3" t="n">
+        <v>30647.2</v>
+      </c>
+      <c r="X61" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>50</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>25</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>2.14819694519043</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>0.05370492362976076</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>0.003825902938842773</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>0.027640625</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>0.0138203125</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2" t="n">
+        <v>227.0015978813171</v>
+      </c>
+      <c r="W62" s="3" t="n">
+        <v>29510.4</v>
+      </c>
+      <c r="X62" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>25</v>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>1.925665054321289</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>0.04814162635803223</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>0.004719257354736328</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0.023109375</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>0.0115546875</v>
+      </c>
+      <c r="U63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="n">
+        <v>219.994530916214</v>
+      </c>
+      <c r="W63" s="3" t="n">
+        <v>27886.4</v>
+      </c>
+      <c r="X63" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>50</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>25</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>2.328131332397462</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>0.05820328330993654</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>0.004711151123046875</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>0.03013281250000001</v>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>0.01506640625000001</v>
+      </c>
+      <c r="U64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2" t="n">
+        <v>233.2705979347229</v>
+      </c>
+      <c r="W64" s="3" t="n">
+        <v>30925.6</v>
+      </c>
+      <c r="X64" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>50</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>25</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>2.253490753173828</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>0.05633726882934571</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0.003888607025146484</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0.0292265625</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>0.01461328125</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2" t="n">
+        <v>222.6214182376862</v>
+      </c>
+      <c r="W65" s="3" t="n">
+        <v>28512.8</v>
+      </c>
+      <c r="X65" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="n">
+        <v>50</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>25</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>1.829511337280273</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>0.04573778343200683</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>0.0044708251953125</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>0.02175</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>0.010875</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2" t="n">
+        <v>219.4328072071075</v>
+      </c>
+      <c r="W66" s="3" t="n">
+        <v>27747.2</v>
+      </c>
+      <c r="X66" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>50</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>25</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>1.847857894897461</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>0.04619644737243652</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>0.005257844924926758</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>0.0210703125</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>0.01053515625</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2" t="n">
+        <v>214.2260005474091</v>
+      </c>
+      <c r="W67" s="3" t="n">
+        <v>26517.6</v>
+      </c>
+      <c r="X67" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>50</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>25</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>1.816541366577149</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>0.04541353416442873</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>0.004701375961303711</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>0.02175000000000001</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>0.01087500000000001</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2" t="n">
+        <v>209.475800037384</v>
+      </c>
+      <c r="W68" s="3" t="n">
+        <v>25427.2</v>
+      </c>
+      <c r="X68" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>50</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>25</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>2.014876022338867</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>0.05037190055847169</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>0.005058526992797852</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>0.02446875</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>0.012234375</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" s="2" t="n">
+        <v>225.6778552532196</v>
+      </c>
+      <c r="W69" s="3" t="n">
+        <v>29185.6</v>
+      </c>
+      <c r="X69" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>50</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>8</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>25</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>1.860931015014649</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>0.04652327537536621</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0.00516963005065918</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>0.02152343750000001</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>0.01076171875</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2" t="n">
+        <v>203.9302973747253</v>
+      </c>
+      <c r="W70" s="3" t="n">
+        <v>24244</v>
+      </c>
+      <c r="X70" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>50</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>25</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>1.909944610595704</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>0.04774861526489259</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>0.004754543304443359</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>0.0228828125</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>0.01144140625</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" s="2" t="n">
+        <v>209.7694582939148</v>
+      </c>
+      <c r="W71" s="3" t="n">
+        <v>25543.2</v>
+      </c>
+      <c r="X71" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>50</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>25</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>2.018843307495118</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>0.05047108268737794</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>0.005269050598144531</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>0.02446875000000001</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>0.012234375</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="2" t="n">
+        <v>225.640552520752</v>
+      </c>
+      <c r="W72" s="3" t="n">
+        <v>29185.6</v>
+      </c>
+      <c r="X72" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>50</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>25</v>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>1.807414703369141</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>0.04518536758422852</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>0.004105091094970703</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>0.02175000000000001</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>0.010875</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2" t="n">
+        <v>209.3615956306458</v>
+      </c>
+      <c r="W73" s="3" t="n">
+        <v>25427.2</v>
+      </c>
+      <c r="X73" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>50</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>16</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>25</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>2.092904281616211</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>0.05232260704040528</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>0.004364252090454102</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>0.02605468750000001</v>
+      </c>
+      <c r="T74" s="1" t="n">
+        <v>0.01302734375</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="2" t="n">
+        <v>211.2783920764923</v>
+      </c>
+      <c r="W74" s="3" t="n">
+        <v>25868</v>
+      </c>
+      <c r="X74" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>16</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>25</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>2.160703125</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>0.05401757812499999</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>0.005184173583984375</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0.02673437500000001</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>0.0133671875</v>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="2" t="n">
+        <v>216.5020084381104</v>
+      </c>
+      <c r="W75" s="3" t="n">
+        <v>27097.6</v>
+      </c>
+      <c r="X75" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>50</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>16</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>25</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>1.955858383178712</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>0.0488964595794678</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0.004481315612792969</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>0.02310937500000001</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>0.01155468750000001</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="2" t="n">
+        <v>219.7927017211914</v>
+      </c>
+      <c r="W76" s="3" t="n">
+        <v>27886.4</v>
+      </c>
+      <c r="X76" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>50</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>16</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>25</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>2.013155517578126</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>0.05032888793945315</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0.004837989807128906</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0.02424218750000001</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>0.01212109375000001</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" s="2" t="n">
+        <v>220.2043073177338</v>
+      </c>
+      <c r="W77" s="3" t="n">
+        <v>28002.4</v>
+      </c>
+      <c r="X77" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>50</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>16</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>25</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>1.947950668334961</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>0.04869876670837402</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0.0047760009765625</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>0.02356250000000001</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>0.01178125</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="2" t="n">
+        <v>214.9748156070709</v>
+      </c>
+      <c r="W78" s="3" t="n">
+        <v>26772.8</v>
+      </c>
+      <c r="X78" s="3" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>50</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>32</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>26</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>2.183210152846116</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>0.05676346397399901</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0.004485368728637695</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" s="2" t="n">
+        <v>230.8728885650635</v>
+      </c>
+      <c r="W79" s="3" t="n">
+        <v>29510.4</v>
+      </c>
+      <c r="X79" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>50</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>26</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>1.920665667607234</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>0.04993730735778808</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>0.0046844482421875</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>0.024015625</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>0.0120078125</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" s="2" t="n">
+        <v>223.5482549667358</v>
+      </c>
+      <c r="W80" s="3" t="n">
+        <v>27793.6</v>
+      </c>
+      <c r="X80" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>50</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>32</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>26</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>1.965013577387884</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>0.05109035301208499</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0.005067825317382812</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0.02469531250000001</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>0.01234765625000001</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" s="2" t="n">
+        <v>228.8704299926758</v>
+      </c>
+      <c r="W81" s="3" t="n">
+        <v>29069.6</v>
+      </c>
+      <c r="X81" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>50</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>32</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>26</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>1.852239168607272</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>0.04815821838378907</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0.004882335662841797</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>0.02288281250000001</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>0.01144140625000001</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2" t="n">
+        <v>217.4443736076355</v>
+      </c>
+      <c r="W82" s="3" t="n">
+        <v>26471.2</v>
+      </c>
+      <c r="X82" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>50</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>32</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>26</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>1.957398781409631</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>0.05089236831665041</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>0.004831552505493164</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>0.02446875000000001</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>0.012234375</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2" t="n">
+        <v>223.4971895217896</v>
+      </c>
+      <c r="W83" s="3" t="n">
+        <v>27840</v>
+      </c>
+      <c r="X83" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>50</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>64</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>27</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>2.189251652470343</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>0.05910979461669925</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0.00531458854675293</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>0.02967968750000001</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>0.01483984375</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2" t="n">
+        <v>233.8027460575104</v>
+      </c>
+      <c r="W84" s="3" t="n">
+        <v>29348</v>
+      </c>
+      <c r="X84" s="3" t="n">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>50</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>64</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>27</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>2.094023174709744</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>0.05653862571716309</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>0.005131959915161133</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0.0278671875</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>0.01393359375</v>
+      </c>
+      <c r="U85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2" t="n">
+        <v>238.85178399086</v>
+      </c>
+      <c r="W85" s="3" t="n">
+        <v>30415.2</v>
+      </c>
+      <c r="X85" s="3" t="n">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
+        <v>50</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>64</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>27</v>
+      </c>
+      <c r="O86" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>2.351657938074184</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>0.06349476432800295</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0.005373239517211914</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0.0323984375</v>
+      </c>
+      <c r="T86" s="1" t="n">
+        <v>0.01619921875</v>
+      </c>
+      <c r="U86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" s="2" t="n">
+        <v>246.1415312290192</v>
+      </c>
+      <c r="W86" s="3" t="n">
+        <v>32132</v>
+      </c>
+      <c r="X86" s="3" t="n">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>50</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>64</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>30</v>
+      </c>
+      <c r="O87" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>5.720665295918779</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>0.1716199588775634</v>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0.1064622402191162</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>0.03625000000000001</v>
+      </c>
+      <c r="T87" s="1" t="n">
+        <v>0.01812500000000001</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" s="2" t="n">
+        <v>267.4938187599182</v>
+      </c>
+      <c r="W87" s="3" t="n">
+        <v>34336</v>
+      </c>
+      <c r="X87" s="3" t="n">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>50</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>64</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>26</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>1.841855049133301</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>0.04788823127746584</v>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>0.00496363639831543</v>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0.02265625000000001</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="U88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="2" t="n">
+        <v>217.5810296535492</v>
+      </c>
+      <c r="W88" s="3" t="n">
+        <v>26448</v>
+      </c>
+      <c r="X88" s="3" t="n">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>50</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>128</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>28</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>1.697979450225831</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>0.04754342460632325</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>0.004916906356811523</v>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>0.02197656250000001</v>
+      </c>
+      <c r="T89" s="1" t="n">
+        <v>0.01098828125000001</v>
+      </c>
+      <c r="U89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2" t="n">
+        <v>244.2635748386383</v>
+      </c>
+      <c r="W89" s="3" t="n">
+        <v>30832.8</v>
+      </c>
+      <c r="X89" s="3" t="n">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>50</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>128</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>29</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>2.367369947762326</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>0.06865372848510744</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0.006455183029174805</v>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0.0342109375</v>
+      </c>
+      <c r="T90" s="1" t="n">
+        <v>0.01710546875</v>
+      </c>
+      <c r="U90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" s="2" t="n">
+        <v>269.6271059513092</v>
+      </c>
+      <c r="W90" s="3" t="n">
+        <v>35797.6</v>
+      </c>
+      <c r="X90" s="3" t="n">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="n">
+        <v>50</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>128</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>28</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>2.01194088799613</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>0.05633434486389163</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>0.005308628082275391</v>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0.02741406250000001</v>
+      </c>
+      <c r="T91" s="1" t="n">
+        <v>0.01370703125</v>
+      </c>
+      <c r="U91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" s="2" t="n">
+        <v>240.9212641716003</v>
+      </c>
+      <c r="W91" s="3" t="n">
+        <v>30090.4</v>
+      </c>
+      <c r="X91" s="3" t="n">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>50</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>128</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>29</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>2.044995340807684</v>
+      </c>
+      <c r="Q92" s="1" t="n">
+        <v>0.05930486488342284</v>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>0.005339145660400391</v>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0.02922656250000001</v>
+      </c>
+      <c r="T92" s="1" t="n">
+        <v>0.01461328125</v>
+      </c>
+      <c r="U92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2" t="n">
+        <v>255.9007005691528</v>
+      </c>
+      <c r="W92" s="3" t="n">
+        <v>32596</v>
+      </c>
+      <c r="X92" s="3" t="n">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>50</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>128</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>28</v>
+      </c>
+      <c r="O93" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>1.865161078316825</v>
+      </c>
+      <c r="Q93" s="1" t="n">
+        <v>0.0522245101928711</v>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>0.005410432815551758</v>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>0.02469531250000001</v>
+      </c>
+      <c r="T93" s="1" t="n">
+        <v>0.01234765625</v>
+      </c>
+      <c r="U93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" s="2" t="n">
+        <v>229.1378500461578</v>
+      </c>
+      <c r="W93" s="3" t="n">
+        <v>27213.6</v>
+      </c>
+      <c r="X93" s="3" t="n">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>50</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>256</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>34</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>2.226639859816607</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>0.07570575523376463</v>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>0.006093978881835938</v>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>0.0382890625</v>
+      </c>
+      <c r="T94" s="1" t="n">
+        <v>0.01914453125</v>
+      </c>
+      <c r="U94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" s="2" t="n">
+        <v>308.5663392543793</v>
+      </c>
+      <c r="W94" s="3" t="n">
+        <v>40205.6</v>
+      </c>
+      <c r="X94" s="3" t="n">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>50</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>256</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>33</v>
+      </c>
+      <c r="O95" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>1.977127999970408</v>
+      </c>
+      <c r="Q95" s="1" t="n">
+        <v>0.06524522399902347</v>
+      </c>
+      <c r="R95" s="1" t="n">
+        <v>0.006460189819335938</v>
+      </c>
+      <c r="S95" s="1" t="n">
+        <v>0.03126562500000001</v>
+      </c>
+      <c r="T95" s="1" t="n">
+        <v>0.01563281250000001</v>
+      </c>
+      <c r="U95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" s="2" t="n">
+        <v>296.5651860237122</v>
+      </c>
+      <c r="W95" s="3" t="n">
+        <v>38419.2</v>
+      </c>
+      <c r="X95" s="3" t="n">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>50</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>256</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>33</v>
+      </c>
+      <c r="O96" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>1.936365647749467</v>
+      </c>
+      <c r="Q96" s="1" t="n">
+        <v>0.06390006637573242</v>
+      </c>
+      <c r="R96" s="1" t="n">
+        <v>0.005527019500732422</v>
+      </c>
+      <c r="S96" s="1" t="n">
+        <v>0.03126562500000002</v>
+      </c>
+      <c r="T96" s="1" t="n">
+        <v>0.01563281250000001</v>
+      </c>
+      <c r="U96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" s="2" t="n">
+        <v>297.1958589553833</v>
+      </c>
+      <c r="W96" s="3" t="n">
+        <v>38419.2</v>
+      </c>
+      <c r="X96" s="3" t="n">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>50</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>256</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>33</v>
+      </c>
+      <c r="O97" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>1.902908614187531</v>
+      </c>
+      <c r="Q97" s="1" t="n">
+        <v>0.06279598426818851</v>
+      </c>
+      <c r="R97" s="1" t="n">
+        <v>0.00668787956237793</v>
+      </c>
+      <c r="S97" s="1" t="n">
+        <v>0.02967968750000002</v>
+      </c>
+      <c r="T97" s="1" t="n">
+        <v>0.01483984375000001</v>
+      </c>
+      <c r="U97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" s="2" t="n">
+        <v>289.2635424137115</v>
+      </c>
+      <c r="W97" s="3" t="n">
+        <v>36725.6</v>
+      </c>
+      <c r="X97" s="3" t="n">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>50</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>256</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>33</v>
+      </c>
+      <c r="O98" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>2.057251670143821</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>0.06788930511474608</v>
+      </c>
+      <c r="R98" s="1" t="n">
+        <v>0.00586247444152832</v>
+      </c>
+      <c r="S98" s="1" t="n">
+        <v>0.03353125000000001</v>
+      </c>
+      <c r="T98" s="1" t="n">
+        <v>0.01676562500000001</v>
+      </c>
+      <c r="U98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" s="2" t="n">
+        <v>290.9460859298706</v>
+      </c>
+      <c r="W98" s="3" t="n">
+        <v>37120</v>
+      </c>
+      <c r="X98" s="3" t="n">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>50</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>512</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>52</v>
+      </c>
+      <c r="O99" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>2.091312628525953</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>0.1087482566833495</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <v>0.01115608215332031</v>
+      </c>
+      <c r="S99" s="1" t="n">
+        <v>0.05233593749999994</v>
+      </c>
+      <c r="T99" s="1" t="n">
+        <v>0.02616796874999997</v>
+      </c>
+      <c r="U99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" s="2" t="n">
+        <v>468.787207365036</v>
+      </c>
+      <c r="W99" s="3" t="n">
+        <v>60853.6</v>
+      </c>
+      <c r="X99" s="3" t="n">
+        <v>12064</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>50</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>512</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>48</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>1.919045686721801</v>
+      </c>
+      <c r="Q100" s="1" t="n">
+        <v>0.09211419296264646</v>
+      </c>
+      <c r="R100" s="1" t="n">
+        <v>0.009661197662353516</v>
+      </c>
+      <c r="S100" s="1" t="n">
+        <v>0.04327343749999998</v>
+      </c>
+      <c r="T100" s="1" t="n">
+        <v>0.02163671874999999</v>
+      </c>
+      <c r="U100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" s="2" t="n">
+        <v>401.3603270053864</v>
+      </c>
+      <c r="W100" s="3" t="n">
+        <v>48975.2</v>
+      </c>
+      <c r="X100" s="3" t="n">
+        <v>11136</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="n">
+        <v>50</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>512</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>49</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>1.998056956699915</v>
+      </c>
+      <c r="Q101" s="1" t="n">
+        <v>0.09790479087829583</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <v>0.009791851043701172</v>
+      </c>
+      <c r="S101" s="1" t="n">
+        <v>0.04689843749999997</v>
+      </c>
+      <c r="T101" s="1" t="n">
+        <v>0.02344921874999999</v>
+      </c>
+      <c r="U101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" s="2" t="n">
+        <v>420.8933968544006</v>
+      </c>
+      <c r="W101" s="3" t="n">
+        <v>52548</v>
+      </c>
+      <c r="X101" s="3" t="n">
+        <v>11368</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>50</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>512</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>51</v>
+      </c>
+      <c r="O102" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>2.022170721315869</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>0.1031307067871093</v>
+      </c>
+      <c r="R102" s="1" t="n">
+        <v>0.01013875007629395</v>
+      </c>
+      <c r="S102" s="1" t="n">
+        <v>0.04916406249999997</v>
+      </c>
+      <c r="T102" s="1" t="n">
+        <v>0.02458203124999998</v>
+      </c>
+      <c r="U102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" s="2" t="n">
+        <v>448.5404524803162</v>
+      </c>
+      <c r="W102" s="3" t="n">
+        <v>57095.2</v>
+      </c>
+      <c r="X102" s="3" t="n">
+        <v>11832</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>50</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>512</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>45</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>1.763346269395615</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <v>0.07935058212280269</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <v>0.008687496185302734</v>
+      </c>
+      <c r="S103" s="1" t="n">
+        <v>0.03579687500000001</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>0.0178984375</v>
+      </c>
+      <c r="U103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" s="2" t="n">
+        <v>410.6716072559357</v>
+      </c>
+      <c r="W103" s="3" t="n">
+        <v>53777.6</v>
+      </c>
+      <c r="X103" s="3" t="n">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="n">
+        <v>50</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>134</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>0.3118484134674074</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>2.327226966174682</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>0.3118484134674074</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>0.02347540855407715</v>
+      </c>
+      <c r="S104" s="1" t="n">
+        <v>0.1599531249999997</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>0.07997656249999985</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" s="2" t="n">
+        <v>1166.579324245453</v>
+      </c>
+      <c r="W104" s="3" t="n">
+        <v>146948.8</v>
+      </c>
+      <c r="X104" s="3" t="n">
+        <v>31088</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>50</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1824</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>3.612549770355129</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>1.980564567080663</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <v>3.612549770355129</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <v>0.3915157318115234</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>1.680867187500076</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>0.8404335937500381</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" s="2" t="n">
+        <v>17212.81854653358</v>
+      </c>
+      <c r="W105" s="3" t="n">
+        <v>2118693.6</v>
+      </c>
+      <c r="X105" s="3" t="n">
+        <v>423168</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>50</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>81</v>
+      </c>
+      <c r="O106" s="1" t="n">
+        <v>0.2089958152770997</v>
+      </c>
+      <c r="P106" s="1" t="n">
+        <v>2.580195250334564</v>
+      </c>
+      <c r="Q106" s="1" t="n">
+        <v>0.2089958152770997</v>
+      </c>
+      <c r="R106" s="1" t="n">
+        <v>0.01633238792419434</v>
+      </c>
+      <c r="S106" s="1" t="n">
+        <v>0.1071640624999999</v>
+      </c>
+      <c r="T106" s="1" t="n">
+        <v>0.05358203124999994</v>
+      </c>
+      <c r="U106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" s="2" t="n">
+        <v>758.3068706989288</v>
+      </c>
+      <c r="W106" s="3" t="n">
+        <v>101175.2</v>
+      </c>
+      <c r="X106" s="3" t="n">
+        <v>18792</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>50</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>383</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P107" s="1" t="n">
+        <v>1.833111840190838</v>
+      </c>
+      <c r="Q107" s="1" t="n">
+        <v>0.7020818347930911</v>
+      </c>
+      <c r="R107" s="1" t="n">
+        <v>0.07604098320007324</v>
+      </c>
+      <c r="S107" s="1" t="n">
+        <v>0.3185468750000004</v>
+      </c>
+      <c r="T107" s="1" t="n">
+        <v>0.1592734375000002</v>
+      </c>
+      <c r="U107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" s="2" t="n">
+        <v>3373.956325292587</v>
+      </c>
+      <c r="W107" s="3" t="n">
+        <v>423585.6</v>
+      </c>
+      <c r="X107" s="3" t="n">
+        <v>88856</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="n">
+        <v>50</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>311</v>
+      </c>
+      <c r="O108" s="1" t="n">
+        <v>0.6573211193084731</v>
+      </c>
+      <c r="P108" s="1" t="n">
+        <v>2.113572730895412</v>
+      </c>
+      <c r="Q108" s="1" t="n">
+        <v>0.6573211193084731</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <v>0.05428981781005859</v>
+      </c>
+      <c r="S108" s="1" t="n">
+        <v>0.328515625000001</v>
+      </c>
+      <c r="T108" s="1" t="n">
+        <v>0.1642578125000005</v>
+      </c>
+      <c r="U108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" s="2" t="n">
+        <v>2761.983842134476</v>
+      </c>
+      <c r="W108" s="3" t="n">
+        <v>351108.8</v>
+      </c>
+      <c r="X108" s="3" t="n">
+        <v>72152</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>50</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>13</v>
+      </c>
+      <c r="O109" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P109" s="1" t="n">
+        <v>2.132314535287711</v>
+      </c>
+      <c r="Q109" s="1" t="n">
+        <v>0.02772008895874024</v>
+      </c>
+      <c r="R109" s="1" t="n">
+        <v>0.002175569534301758</v>
+      </c>
+      <c r="S109" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="T109" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="U109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" s="2" t="n">
+        <v>120.8871791362762</v>
+      </c>
+      <c r="W109" s="3" t="n">
+        <v>15868.8</v>
+      </c>
+      <c r="X109" s="3" t="n">
+        <v>3016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z462"/>
+  <dimension ref="A1:Z474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37881,6 +37881,990 @@
         <v>3248</v>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2</v>
+      </c>
+      <c r="D463" t="n">
+        <v>10</v>
+      </c>
+      <c r="E463" t="n">
+        <v>10</v>
+      </c>
+      <c r="F463" t="n">
+        <v>3</v>
+      </c>
+      <c r="G463" t="n">
+        <v>50</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K463" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L463" t="b">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>16</v>
+      </c>
+      <c r="N463" t="n">
+        <v>16</v>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P463" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q463" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R463" s="17" t="n">
+        <v>2.286108016967773</v>
+      </c>
+      <c r="S463" s="17" t="n">
+        <v>0.009144432067871093</v>
+      </c>
+      <c r="T463" s="17" t="n">
+        <v>0.002155542373657227</v>
+      </c>
+      <c r="U463" s="17" t="n">
+        <v>0.003625</v>
+      </c>
+      <c r="V463" s="17" t="n">
+        <v>0.0018125</v>
+      </c>
+      <c r="W463" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X463" s="18" t="n">
+        <v>35.2994372844696</v>
+      </c>
+      <c r="Y463" s="19" t="n">
+        <v>4268.8</v>
+      </c>
+      <c r="Z463" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2</v>
+      </c>
+      <c r="D464" t="n">
+        <v>10</v>
+      </c>
+      <c r="E464" t="n">
+        <v>10</v>
+      </c>
+      <c r="F464" t="n">
+        <v>3</v>
+      </c>
+      <c r="G464" t="n">
+        <v>50</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K464" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L464" t="b">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>16</v>
+      </c>
+      <c r="N464" t="n">
+        <v>16</v>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P464" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q464" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R464" s="17" t="n">
+        <v>2.393219947814941</v>
+      </c>
+      <c r="S464" s="17" t="n">
+        <v>0.009572879791259765</v>
+      </c>
+      <c r="T464" s="17" t="n">
+        <v>0.001131772994995117</v>
+      </c>
+      <c r="U464" s="17" t="n">
+        <v>0.004757812500000001</v>
+      </c>
+      <c r="V464" s="17" t="n">
+        <v>0.00237890625</v>
+      </c>
+      <c r="W464" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X464" s="18" t="n">
+        <v>37.41122794151306</v>
+      </c>
+      <c r="Y464" s="19" t="n">
+        <v>4756</v>
+      </c>
+      <c r="Z464" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2</v>
+      </c>
+      <c r="D465" t="n">
+        <v>10</v>
+      </c>
+      <c r="E465" t="n">
+        <v>10</v>
+      </c>
+      <c r="F465" t="n">
+        <v>3</v>
+      </c>
+      <c r="G465" t="n">
+        <v>50</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0</v>
+      </c>
+      <c r="J465" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K465" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L465" t="b">
+        <v>0</v>
+      </c>
+      <c r="M465" t="n">
+        <v>16</v>
+      </c>
+      <c r="N465" t="n">
+        <v>16</v>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P465" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q465" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R465" s="17" t="n">
+        <v>2.524171352386475</v>
+      </c>
+      <c r="S465" s="17" t="n">
+        <v>0.0100966854095459</v>
+      </c>
+      <c r="T465" s="17" t="n">
+        <v>0.001620769500732422</v>
+      </c>
+      <c r="U465" s="17" t="n">
+        <v>0.004757812500000001</v>
+      </c>
+      <c r="V465" s="17" t="n">
+        <v>0.00237890625</v>
+      </c>
+      <c r="W465" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X465" s="18" t="n">
+        <v>37.41674160957336</v>
+      </c>
+      <c r="Y465" s="19" t="n">
+        <v>4756</v>
+      </c>
+      <c r="Z465" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>2</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+      <c r="C466" t="n">
+        <v>2</v>
+      </c>
+      <c r="D466" t="n">
+        <v>10</v>
+      </c>
+      <c r="E466" t="n">
+        <v>10</v>
+      </c>
+      <c r="F466" t="n">
+        <v>3</v>
+      </c>
+      <c r="G466" t="n">
+        <v>50</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J466" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K466" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L466" t="b">
+        <v>0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>16</v>
+      </c>
+      <c r="N466" t="n">
+        <v>16</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P466" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q466" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R466" s="17" t="n">
+        <v>2.611611366271973</v>
+      </c>
+      <c r="S466" s="17" t="n">
+        <v>0.01044644546508789</v>
+      </c>
+      <c r="T466" s="17" t="n">
+        <v>0.00184941291809082</v>
+      </c>
+      <c r="U466" s="17" t="n">
+        <v>0.0047578125</v>
+      </c>
+      <c r="V466" s="17" t="n">
+        <v>0.00237890625</v>
+      </c>
+      <c r="W466" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X466" s="18" t="n">
+        <v>37.41062450408936</v>
+      </c>
+      <c r="Y466" s="19" t="n">
+        <v>4756</v>
+      </c>
+      <c r="Z466" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>2</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2</v>
+      </c>
+      <c r="D467" t="n">
+        <v>10</v>
+      </c>
+      <c r="E467" t="n">
+        <v>10</v>
+      </c>
+      <c r="F467" t="n">
+        <v>3</v>
+      </c>
+      <c r="G467" t="n">
+        <v>50</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
+      <c r="J467" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K467" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L467" t="b">
+        <v>0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>16</v>
+      </c>
+      <c r="N467" t="n">
+        <v>16</v>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P467" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q467" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R467" s="17" t="n">
+        <v>2.542445659637451</v>
+      </c>
+      <c r="S467" s="17" t="n">
+        <v>0.01016978263854981</v>
+      </c>
+      <c r="T467" s="17" t="n">
+        <v>0.001868247985839844</v>
+      </c>
+      <c r="U467" s="17" t="n">
+        <v>0.004531250000000001</v>
+      </c>
+      <c r="V467" s="17" t="n">
+        <v>0.002265625</v>
+      </c>
+      <c r="W467" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X467" s="18" t="n">
+        <v>38.1127336025238</v>
+      </c>
+      <c r="Y467" s="19" t="n">
+        <v>4918.4</v>
+      </c>
+      <c r="Z467" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>2</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2</v>
+      </c>
+      <c r="D468" t="n">
+        <v>10</v>
+      </c>
+      <c r="E468" t="n">
+        <v>10</v>
+      </c>
+      <c r="F468" t="n">
+        <v>3</v>
+      </c>
+      <c r="G468" t="n">
+        <v>50</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0</v>
+      </c>
+      <c r="J468" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K468" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L468" t="b">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>16</v>
+      </c>
+      <c r="N468" t="n">
+        <v>16</v>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P468" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q468" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R468" s="17" t="n">
+        <v>2.240594387054443</v>
+      </c>
+      <c r="S468" s="17" t="n">
+        <v>0.008962377548217772</v>
+      </c>
+      <c r="T468" s="17" t="n">
+        <v>0.001659870147705078</v>
+      </c>
+      <c r="U468" s="17" t="n">
+        <v>0.0038515625</v>
+      </c>
+      <c r="V468" s="17" t="n">
+        <v>0.00192578125</v>
+      </c>
+      <c r="W468" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X468" s="18" t="n">
+        <v>37.00537061691284</v>
+      </c>
+      <c r="Y468" s="19" t="n">
+        <v>4663.2</v>
+      </c>
+      <c r="Z468" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>2</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2</v>
+      </c>
+      <c r="D469" t="n">
+        <v>10</v>
+      </c>
+      <c r="E469" t="n">
+        <v>10</v>
+      </c>
+      <c r="F469" t="n">
+        <v>3</v>
+      </c>
+      <c r="G469" t="n">
+        <v>50</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K469" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L469" t="b">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>16</v>
+      </c>
+      <c r="N469" t="n">
+        <v>16</v>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P469" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q469" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R469" s="17" t="n">
+        <v>2.207418918609619</v>
+      </c>
+      <c r="S469" s="17" t="n">
+        <v>0.008829675674438476</v>
+      </c>
+      <c r="T469" s="17" t="n">
+        <v>0.001140594482421875</v>
+      </c>
+      <c r="U469" s="17" t="n">
+        <v>0.004078125</v>
+      </c>
+      <c r="V469" s="17" t="n">
+        <v>0.0020390625</v>
+      </c>
+      <c r="W469" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X469" s="18" t="n">
+        <v>37.91260147094727</v>
+      </c>
+      <c r="Y469" s="19" t="n">
+        <v>4872</v>
+      </c>
+      <c r="Z469" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2</v>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2</v>
+      </c>
+      <c r="D470" t="n">
+        <v>10</v>
+      </c>
+      <c r="E470" t="n">
+        <v>10</v>
+      </c>
+      <c r="F470" t="n">
+        <v>3</v>
+      </c>
+      <c r="G470" t="n">
+        <v>50</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0</v>
+      </c>
+      <c r="J470" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K470" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L470" t="b">
+        <v>0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>16</v>
+      </c>
+      <c r="N470" t="n">
+        <v>16</v>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P470" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q470" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R470" s="17" t="n">
+        <v>2.156326770782471</v>
+      </c>
+      <c r="S470" s="17" t="n">
+        <v>0.008625307083129884</v>
+      </c>
+      <c r="T470" s="17" t="n">
+        <v>0.0004904270172119141</v>
+      </c>
+      <c r="U470" s="17" t="n">
+        <v>0.004531250000000001</v>
+      </c>
+      <c r="V470" s="17" t="n">
+        <v>0.002265625</v>
+      </c>
+      <c r="W470" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X470" s="18" t="n">
+        <v>35.68000936508179</v>
+      </c>
+      <c r="Y470" s="19" t="n">
+        <v>4361.6</v>
+      </c>
+      <c r="Z470" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2</v>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2</v>
+      </c>
+      <c r="D471" t="n">
+        <v>10</v>
+      </c>
+      <c r="E471" t="n">
+        <v>10</v>
+      </c>
+      <c r="F471" t="n">
+        <v>3</v>
+      </c>
+      <c r="G471" t="n">
+        <v>50</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0</v>
+      </c>
+      <c r="J471" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K471" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L471" t="b">
+        <v>0</v>
+      </c>
+      <c r="M471" t="n">
+        <v>16</v>
+      </c>
+      <c r="N471" t="n">
+        <v>16</v>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P471" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q471" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R471" s="17" t="n">
+        <v>1.548069953918457</v>
+      </c>
+      <c r="S471" s="17" t="n">
+        <v>0.006192279815673829</v>
+      </c>
+      <c r="T471" s="17" t="n">
+        <v>0.0004827976226806641</v>
+      </c>
+      <c r="U471" s="17" t="n">
+        <v>0.0029453125</v>
+      </c>
+      <c r="V471" s="17" t="n">
+        <v>0.00147265625</v>
+      </c>
+      <c r="W471" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X471" s="18" t="n">
+        <v>34.9842791557312</v>
+      </c>
+      <c r="Y471" s="19" t="n">
+        <v>4199.2</v>
+      </c>
+      <c r="Z471" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>2</v>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2</v>
+      </c>
+      <c r="D472" t="n">
+        <v>10</v>
+      </c>
+      <c r="E472" t="n">
+        <v>10</v>
+      </c>
+      <c r="F472" t="n">
+        <v>3</v>
+      </c>
+      <c r="G472" t="n">
+        <v>50</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K472" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L472" t="b">
+        <v>0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>16</v>
+      </c>
+      <c r="N472" t="n">
+        <v>16</v>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P472" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q472" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R472" s="17" t="n">
+        <v>1.712746620178223</v>
+      </c>
+      <c r="S472" s="17" t="n">
+        <v>0.006850986480712891</v>
+      </c>
+      <c r="T472" s="17" t="n">
+        <v>0.0004765987396240234</v>
+      </c>
+      <c r="U472" s="17" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="V472" s="17" t="n">
+        <v>0.00169921875</v>
+      </c>
+      <c r="W472" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X472" s="18" t="n">
+        <v>36.80687069892883</v>
+      </c>
+      <c r="Y472" s="19" t="n">
+        <v>4616.8</v>
+      </c>
+      <c r="Z472" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>2</v>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2</v>
+      </c>
+      <c r="D473" t="n">
+        <v>10</v>
+      </c>
+      <c r="E473" t="n">
+        <v>10</v>
+      </c>
+      <c r="F473" t="n">
+        <v>3</v>
+      </c>
+      <c r="G473" t="n">
+        <v>50</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K473" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L473" t="b">
+        <v>0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>16</v>
+      </c>
+      <c r="N473" t="n">
+        <v>16</v>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P473" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q473" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R473" s="17" t="n">
+        <v>2.321778297424316</v>
+      </c>
+      <c r="S473" s="17" t="n">
+        <v>0.009287113189697266</v>
+      </c>
+      <c r="T473" s="17" t="n">
+        <v>0.0004842281341552734</v>
+      </c>
+      <c r="U473" s="17" t="n">
+        <v>0.004984375</v>
+      </c>
+      <c r="V473" s="17" t="n">
+        <v>0.0024921875</v>
+      </c>
+      <c r="W473" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X473" s="18" t="n">
+        <v>38.35043406486511</v>
+      </c>
+      <c r="Y473" s="19" t="n">
+        <v>4964.8</v>
+      </c>
+      <c r="Z473" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>2</v>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+      <c r="C474" t="n">
+        <v>2</v>
+      </c>
+      <c r="D474" t="n">
+        <v>10</v>
+      </c>
+      <c r="E474" t="n">
+        <v>10</v>
+      </c>
+      <c r="F474" t="n">
+        <v>3</v>
+      </c>
+      <c r="G474" t="n">
+        <v>50</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0</v>
+      </c>
+      <c r="J474" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K474" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L474" t="b">
+        <v>0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>16</v>
+      </c>
+      <c r="N474" t="n">
+        <v>16</v>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P474" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q474" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R474" s="17" t="n">
+        <v>1.778490543365479</v>
+      </c>
+      <c r="S474" s="17" t="n">
+        <v>0.007113962173461915</v>
+      </c>
+      <c r="T474" s="17" t="n">
+        <v>0.0006968975067138672</v>
+      </c>
+      <c r="U474" s="17" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="V474" s="17" t="n">
+        <v>0.00169921875</v>
+      </c>
+      <c r="W474" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X474" s="18" t="n">
+        <v>36.82202172279358</v>
+      </c>
+      <c r="Y474" s="19" t="n">
+        <v>4616.8</v>
+      </c>
+      <c r="Z474" s="19" t="n">
+        <v>928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,45 +515,50 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
+          <t>average transaction pending time(ms)</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>average block time(ms)</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>simulation time(sec)</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>total prepare time(sec)</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>total upload time(sec)</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>total download time(sec)</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>total network delay time(sec)</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>elapsed time(secs)</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>average upload data(bytes)</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>average download data(bytes)</t>
         </is>
@@ -1213,6 +1218,91 @@
       </c>
       <c r="Z9" s="3" t="n">
         <v>2552</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="N10" t="n">
+        <v>40</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2623854160308838</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>111.4573558330536</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>26.23854160308838</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0.2623854160308838</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>0.0001642704010009766</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>0.090625</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>0.0453125</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>94.52276921272278</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>12528</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>2320</v>
       </c>
     </row>
   </sheetData>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,6 +1305,176 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" t="n">
+        <v>200</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16384</v>
+      </c>
+      <c r="N11" t="n">
+        <v>40</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0.2571566200256348</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>111.4790219664574</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>32.14457750320435</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0.2571566200256348</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>0.00058746337890625</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>0.08609374999999998</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>0.04304687499999999</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>70.0704345703125</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>8676.799999999999</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" t="n">
+        <v>200</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="N12" t="n">
+        <v>95</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.5498097991943359</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>245.275257277907</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>36.65398661295573</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0.5498097991943359</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0.0004422664642333984</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>0.1540625</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>0.07703125</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>140.8762097358704</v>
+      </c>
+      <c r="Z12" s="3" t="n">
+        <v>17585.6</v>
+      </c>
+      <c r="AA12" s="3" t="n">
+        <v>3480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1475,5956 @@
         <v>3480</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" t="n">
+        <v>200</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>128</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>28.99948120117187</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>28.99948120117187</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0.02899948120117187</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>2.09808349609375e-05</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>0.018125</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>10.27607226371765</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA13" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>200</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>16</v>
+      </c>
+      <c r="N14" t="n">
+        <v>128</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>24.15477752685548</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>24.15477752685547</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0.02415477752685547</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>2.312660217285156e-05</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>10.07607650756836</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" t="n">
+        <v>200</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N15" t="n">
+        <v>128</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>29.75073814392089</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>29.75073814392089</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0.02975073814392089</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>2.408027648925781e-05</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>0.018125</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>10.07527685165405</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>200</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>128</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>23.36608886718751</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>23.3660888671875</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0.0233660888671875</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>2.026557922363281e-05</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>10.27651906013489</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>200</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>128</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>15.60957908630371</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>15.60957908630371</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0.01560957908630371</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>2.169609069824219e-05</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>9.778520584106445</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>200</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>128</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>22.41551399230957</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>22.41551399230957</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0.02241551399230957</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>2.09808349609375e-05</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>9.873555898666382</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>200</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>128</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>15.67109107971191</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>15.67109107971191</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0.01567109107971191</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>2.121925354003906e-05</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="n">
+        <v>9.776970148086548</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" t="n">
+        <v>200</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>16</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>18.02595138549804</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>18.02595138549804</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0.01802595138549805</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>2.169609069824219e-05</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>10.07903814315796</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>200</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>128</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>15.54615974426269</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>15.54615974426269</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0.01554615974426269</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>1.883506774902344e-05</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>10.27700567245483</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+      <c r="K22" t="n">
+        <v>200</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>128</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>18.55311393737793</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>18.55311393737793</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0.01855311393737793</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>1.859664916992188e-05</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="n">
+        <v>10.17573809623718</v>
+      </c>
+      <c r="Z22" s="3" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="AA22" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>200</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>16</v>
+      </c>
+      <c r="N23" t="n">
+        <v>256</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>13.53293418884277</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>13.53293418884277</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>0.01353293418884277</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>2.217292785644531e-05</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="n">
+        <v>9.775305986404419</v>
+      </c>
+      <c r="Z23" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>200</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>16</v>
+      </c>
+      <c r="N24" t="n">
+        <v>256</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>15.35780906677246</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>15.35780906677246</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>0.01535780906677246</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>2.026557922363281e-05</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>9.676106691360474</v>
+      </c>
+      <c r="Z24" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA24" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>200</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>16</v>
+      </c>
+      <c r="N25" t="n">
+        <v>256</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>16.04230880737304</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>16.04230880737304</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0.01604230880737305</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>1.788139343261719e-05</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="n">
+        <v>9.875736474990845</v>
+      </c>
+      <c r="Z25" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA25" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>200</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>16</v>
+      </c>
+      <c r="N26" t="n">
+        <v>256</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>16.20824813842773</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>16.20824813842773</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0.01620824813842773</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>2.121925354003906e-05</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="n">
+        <v>10.0734395980835</v>
+      </c>
+      <c r="Z26" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA26" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" t="n">
+        <v>200</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>16</v>
+      </c>
+      <c r="N27" t="n">
+        <v>256</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>15.1651668548584</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>15.1651668548584</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0.0151651668548584</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>1.978874206542969e-05</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="n">
+        <v>9.672327756881714</v>
+      </c>
+      <c r="Z27" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA27" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" t="n">
+        <v>200</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>16</v>
+      </c>
+      <c r="N28" t="n">
+        <v>256</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>15.40167808532715</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>15.40167808532715</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0.01540167808532715</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>2.193450927734375e-05</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="n">
+        <v>9.873444080352783</v>
+      </c>
+      <c r="Z28" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA28" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>200</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>16</v>
+      </c>
+      <c r="N29" t="n">
+        <v>256</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>23.41496467590333</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>23.41496467590332</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>0.02341496467590332</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>2.312660217285156e-05</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="n">
+        <v>9.875569820404053</v>
+      </c>
+      <c r="Z29" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA29" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>200</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16</v>
+      </c>
+      <c r="N30" t="n">
+        <v>256</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>11.8284797668457</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>11.8284797668457</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>0.0118284797668457</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>1.740455627441406e-05</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="n">
+        <v>9.570680379867554</v>
+      </c>
+      <c r="Z30" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA30" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>200</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>16</v>
+      </c>
+      <c r="N31" t="n">
+        <v>256</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>15.85419654846191</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>15.85419654846191</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0.01585419654846191</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>1.978874206542969e-05</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="n">
+        <v>9.671461582183838</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>200</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>16</v>
+      </c>
+      <c r="N32" t="n">
+        <v>256</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>19.11911964416504</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>19.11911964416504</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0.01911911964416504</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>1.978874206542969e-05</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="n">
+        <v>9.970939159393311</v>
+      </c>
+      <c r="Z32" s="3" t="n">
+        <v>1136.8</v>
+      </c>
+      <c r="AA32" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>200</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>16</v>
+      </c>
+      <c r="N33" t="n">
+        <v>512</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>19.05093193054199</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>19.05093193054199</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0.01905093193054199</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>2.145767211914062e-05</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2" t="n">
+        <v>10.17839932441711</v>
+      </c>
+      <c r="Z33" s="3" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="AA33" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>100</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>16</v>
+      </c>
+      <c r="N34" t="n">
+        <v>512</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>17.89339065551757</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>17.89339065551757</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0.01789339065551758</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>1.883506774902344e-05</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>9.873377799987793</v>
+      </c>
+      <c r="Z34" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA34" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>200</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>16</v>
+      </c>
+      <c r="N35" t="n">
+        <v>512</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>15.58239936828613</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>15.58239936828613</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0.01558239936828613</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>1.788139343261719e-05</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2" t="n">
+        <v>9.673938751220703</v>
+      </c>
+      <c r="Z35" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA35" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>200</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>16</v>
+      </c>
+      <c r="N36" t="n">
+        <v>512</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>25.64729690551758</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>25.64729690551758</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0.02564729690551758</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>2.455711364746094e-05</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0.015859375</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0.007929687499999999</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>10.77744054794312</v>
+      </c>
+      <c r="Z36" s="3" t="n">
+        <v>1322.4</v>
+      </c>
+      <c r="AA36" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>200</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>16</v>
+      </c>
+      <c r="N37" t="n">
+        <v>512</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>15.7602596282959</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>15.7602596282959</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>0.0157602596282959</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>1.835823059082031e-05</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="n">
+        <v>10.27687668800354</v>
+      </c>
+      <c r="Z37" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>100</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>200</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>16</v>
+      </c>
+      <c r="N38" t="n">
+        <v>512</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>19.57759857177734</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>19.57759857177734</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>0.01957759857177734</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>2.312660217285156e-05</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>9.775128841400146</v>
+      </c>
+      <c r="Z38" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA38" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>100</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" t="n">
+        <v>200</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>16</v>
+      </c>
+      <c r="N39" t="n">
+        <v>512</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>15.41383743286133</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>15.41383743286133</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>0.01541383743286133</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>1.955032348632812e-05</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="n">
+        <v>9.47211480140686</v>
+      </c>
+      <c r="Z39" s="3" t="n">
+        <v>1020.8</v>
+      </c>
+      <c r="AA39" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>200</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>16</v>
+      </c>
+      <c r="N40" t="n">
+        <v>512</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>18.9765453338623</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>18.9765453338623</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>0.0189765453338623</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>1.740455627441406e-05</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>9.776134252548218</v>
+      </c>
+      <c r="Z40" s="3" t="n">
+        <v>1136.8</v>
+      </c>
+      <c r="AA40" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>100</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>100</v>
+      </c>
+      <c r="K41" t="n">
+        <v>200</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>16</v>
+      </c>
+      <c r="N41" t="n">
+        <v>512</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>18.9145565032959</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>18.9145565032959</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>0.0189145565032959</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>2.288818359375e-05</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="n">
+        <v>9.772313594818115</v>
+      </c>
+      <c r="Z41" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA41" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>100</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>200</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>16</v>
+      </c>
+      <c r="N42" t="n">
+        <v>512</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>16.93089485168457</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>16.93089485168457</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>0.01693089485168457</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>2.264976501464844e-05</v>
+      </c>
+      <c r="V42" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W42" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="n">
+        <v>9.67682409286499</v>
+      </c>
+      <c r="Z42" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA42" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>100</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>200</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>16</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>22.05049514770508</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>22.05049514770508</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>0.02205049514770508</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>2.050399780273438e-05</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2" t="n">
+        <v>9.671187877655029</v>
+      </c>
+      <c r="Z43" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA43" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>100</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>100</v>
+      </c>
+      <c r="K44" t="n">
+        <v>200</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>16</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>11.99847221374512</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>11.99847221374512</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>0.01199847221374511</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>1.835823059082031e-05</v>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W44" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>9.264849901199341</v>
+      </c>
+      <c r="Z44" s="3" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>100</v>
+      </c>
+      <c r="K45" t="n">
+        <v>200</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>16</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>15.3184700012207</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>15.3184700012207</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>0.0153184700012207</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <v>1.835823059082031e-05</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W45" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>10.07505989074707</v>
+      </c>
+      <c r="Z45" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>100</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>100</v>
+      </c>
+      <c r="K46" t="n">
+        <v>200</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>16</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>18.02499771118164</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>18.02499771118164</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>0.01802499771118164</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>1.621246337890625e-05</v>
+      </c>
+      <c r="V46" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W46" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>10.07502913475037</v>
+      </c>
+      <c r="Z46" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA46" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>100</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" t="n">
+        <v>200</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>16</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>15.29534339904785</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>15.29534339904785</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>0.01529534339904785</v>
+      </c>
+      <c r="U47" s="1" t="n">
+        <v>1.764297485351562e-05</v>
+      </c>
+      <c r="V47" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="n">
+        <v>9.070424556732178</v>
+      </c>
+      <c r="Z47" s="3" t="n">
+        <v>928</v>
+      </c>
+      <c r="AA47" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>100</v>
+      </c>
+      <c r="K48" t="n">
+        <v>200</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>16</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>18.57337951660156</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>18.57337951660156</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>0.01857337951660156</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <v>1.883506774902344e-05</v>
+      </c>
+      <c r="V48" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W48" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>9.570341825485229</v>
+      </c>
+      <c r="Z48" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA48" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>100</v>
+      </c>
+      <c r="K49" t="n">
+        <v>200</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>16</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>15.08243560791015</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>15.08243560791015</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>0.01508243560791015</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>1.621246337890625e-05</v>
+      </c>
+      <c r="V49" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W49" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>9.872997760772705</v>
+      </c>
+      <c r="Z49" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA49" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>100</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>100</v>
+      </c>
+      <c r="K50" t="n">
+        <v>200</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>16</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>11.74908638000488</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>11.74908638000488</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>0.01174908638000488</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>1.788139343261719e-05</v>
+      </c>
+      <c r="V50" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>9.568769931793213</v>
+      </c>
+      <c r="Z50" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA50" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>100</v>
+      </c>
+      <c r="K51" t="n">
+        <v>200</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>16</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>18.67232322692871</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>18.67232322692871</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>0.01867232322692871</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V51" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>9.672104835510254</v>
+      </c>
+      <c r="Z51" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA51" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+      <c r="K52" t="n">
+        <v>200</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>16</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>11.99108123779297</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>11.99108123779297</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>0.01199108123779297</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>1.692771911621094e-05</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W52" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>9.573830604553223</v>
+      </c>
+      <c r="Z52" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA52" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>100</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>100</v>
+      </c>
+      <c r="K53" t="n">
+        <v>200</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>13.39131355285644</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>13.39131355285644</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>0.01339131355285644</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>2.551078796386719e-05</v>
+      </c>
+      <c r="V53" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W53" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>9.772104501724243</v>
+      </c>
+      <c r="Z53" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA53" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="n">
+        <v>200</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>16</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>17.74247169494629</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>17.74247169494629</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>0.01774247169494629</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <v>1.71661376953125e-05</v>
+      </c>
+      <c r="V54" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W54" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>9.676009178161621</v>
+      </c>
+      <c r="Z54" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA54" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>100</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="n">
+        <v>200</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>16</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>25.49017906188965</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>25.49017906188965</v>
+      </c>
+      <c r="T55" s="1" t="n">
+        <v>0.02549017906188965</v>
+      </c>
+      <c r="U55" s="1" t="n">
+        <v>1.740455627441406e-05</v>
+      </c>
+      <c r="V55" s="1" t="n">
+        <v>0.015859375</v>
+      </c>
+      <c r="W55" s="1" t="n">
+        <v>0.007929687499999999</v>
+      </c>
+      <c r="X55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>10.17362189292908</v>
+      </c>
+      <c r="Z55" s="3" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="AA55" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>100</v>
+      </c>
+      <c r="K56" t="n">
+        <v>200</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>16</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>11.7369270324707</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>11.7369270324707</v>
+      </c>
+      <c r="T56" s="1" t="n">
+        <v>0.0117369270324707</v>
+      </c>
+      <c r="U56" s="1" t="n">
+        <v>1.835823059082031e-05</v>
+      </c>
+      <c r="V56" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W56" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>9.572787046432495</v>
+      </c>
+      <c r="Z56" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA56" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>200</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>16</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>19.00110244750977</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>19.00110244750977</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>0.01900110244750976</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <v>1.883506774902344e-05</v>
+      </c>
+      <c r="V57" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W57" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>9.471522569656372</v>
+      </c>
+      <c r="Z57" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA57" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>100</v>
+      </c>
+      <c r="K58" t="n">
+        <v>200</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>16</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>22.59528160095216</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>22.59528160095215</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>0.02259528160095215</v>
+      </c>
+      <c r="U58" s="1" t="n">
+        <v>1.573562622070312e-05</v>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>9.874867677688599</v>
+      </c>
+      <c r="Z58" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA58" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>100</v>
+      </c>
+      <c r="K59" t="n">
+        <v>200</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>16</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>19.6770191192627</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>19.6770191192627</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>0.01967701911926269</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>10.1770384311676</v>
+      </c>
+      <c r="Z59" s="3" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="AA59" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>100</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>100</v>
+      </c>
+      <c r="K60" t="n">
+        <v>200</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>16</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>18.6553955078125</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>18.6553955078125</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>0.0186553955078125</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>9.575942993164062</v>
+      </c>
+      <c r="Z60" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AA60" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>100</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>100</v>
+      </c>
+      <c r="K61" t="n">
+        <v>200</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>16</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>11.77769660949707</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>11.77769660949707</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>0.01177769660949707</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>1.788139343261719e-05</v>
+      </c>
+      <c r="V61" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>9.37046217918396</v>
+      </c>
+      <c r="Z61" s="3" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="AA61" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>100</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>100</v>
+      </c>
+      <c r="K62" t="n">
+        <v>200</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>16</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>23.49030494689942</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>23.49030494689942</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>0.02349030494689942</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V62" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W62" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>10.27885150909424</v>
+      </c>
+      <c r="Z62" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA62" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>100</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100</v>
+      </c>
+      <c r="K63" t="n">
+        <v>200</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>16</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>18.80249977111816</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>18.80249977111816</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>0.01880249977111816</v>
+      </c>
+      <c r="U63" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V63" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W63" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>9.773974180221558</v>
+      </c>
+      <c r="Z63" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA63" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>100</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+      <c r="K64" t="n">
+        <v>200</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>16</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>16.7527961730957</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>16.7527961730957</v>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>0.0167527961730957</v>
+      </c>
+      <c r="U64" s="1" t="n">
+        <v>2.002716064453125e-05</v>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>9.878548145294189</v>
+      </c>
+      <c r="Z64" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA64" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>100</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+      <c r="K65" t="n">
+        <v>200</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>16</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>12.4075984954834</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>12.4075984954834</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>0.0124075984954834</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>9.775250673294067</v>
+      </c>
+      <c r="Z65" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA65" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="n">
+        <v>100</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+      <c r="K66" t="n">
+        <v>200</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>16</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>22.51636505126954</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>22.51636505126953</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>0.02251636505126953</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>1.931190490722656e-05</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>10.6785101890564</v>
+      </c>
+      <c r="Z66" s="3" t="n">
+        <v>1299.2</v>
+      </c>
+      <c r="AA66" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>100</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>200</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>16</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>16.60235404968261</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>16.60235404968261</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>0.01660235404968262</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>2.002716064453125e-05</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>9.875641584396362</v>
+      </c>
+      <c r="Z67" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA67" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>100</v>
+      </c>
+      <c r="K68" t="n">
+        <v>200</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>16</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>22.3129940032959</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>22.3129940032959</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>0.0223129940032959</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>3.027915954589844e-05</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>0.01359375</v>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>0.006796875</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>10.07818222045898</v>
+      </c>
+      <c r="Z68" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA68" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>100</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>100</v>
+      </c>
+      <c r="K69" t="n">
+        <v>200</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>16</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>15.26315689086914</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>15.26315689086914</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>0.01526315689086914</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>1.978874206542969e-05</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2" t="n">
+        <v>9.778602600097656</v>
+      </c>
+      <c r="Z69" s="3" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="AA69" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>100</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>100</v>
+      </c>
+      <c r="K70" t="n">
+        <v>200</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>16</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>18.8995361328125</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>18.8995361328125</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>0.0188995361328125</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>2.264976501464844e-05</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>9.775319576263428</v>
+      </c>
+      <c r="Z70" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA70" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>100</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>200</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>16</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>12.45218276977539</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>12.45218276977539</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>0.01245218276977539</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>1.859664916992188e-05</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2" t="n">
+        <v>9.172491312026978</v>
+      </c>
+      <c r="Z71" s="3" t="n">
+        <v>951.2</v>
+      </c>
+      <c r="AA71" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>100</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>100</v>
+      </c>
+      <c r="K72" t="n">
+        <v>200</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>16</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4096</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>15.47797203063965</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>15.47797203063965</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>0.01547797203063965</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>2.050399780273438e-05</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2" t="n">
+        <v>9.473114252090454</v>
+      </c>
+      <c r="Z72" s="3" t="n">
+        <v>1020.8</v>
+      </c>
+      <c r="AA72" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>100</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>200</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>16</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>11.89356803894043</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>11.89356803894043</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>0.01189356803894043</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>1.9073486328125e-05</v>
+      </c>
+      <c r="V73" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W73" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2" t="n">
+        <v>9.975310802459717</v>
+      </c>
+      <c r="Z73" s="3" t="n">
+        <v>1136.8</v>
+      </c>
+      <c r="AA73" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>100</v>
+      </c>
+      <c r="K74" t="n">
+        <v>200</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>16</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>11.57003402709961</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>11.57003402709961</v>
+      </c>
+      <c r="T74" s="1" t="n">
+        <v>0.01157003402709961</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>1.645088195800781e-05</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0.006796874999999999</v>
+      </c>
+      <c r="W74" s="1" t="n">
+        <v>0.0033984375</v>
+      </c>
+      <c r="X74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2" t="n">
+        <v>9.974034070968628</v>
+      </c>
+      <c r="Z74" s="3" t="n">
+        <v>1136.8</v>
+      </c>
+      <c r="AA74" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>100</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>100</v>
+      </c>
+      <c r="K75" t="n">
+        <v>200</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>16</v>
+      </c>
+      <c r="N75" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>15.39142608642578</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>15.39142608642578</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>0.01539142608642578</v>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>1.621246337890625e-05</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W75" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="2" t="n">
+        <v>10.07051491737366</v>
+      </c>
+      <c r="Z75" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA75" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>100</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>100</v>
+      </c>
+      <c r="K76" t="n">
+        <v>200</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>16</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>15.64367294311523</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>15.64367294311523</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>0.01564367294311523</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>1.597404479980469e-05</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2" t="n">
+        <v>9.668943643569946</v>
+      </c>
+      <c r="Z76" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA76" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>100</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>100</v>
+      </c>
+      <c r="K77" t="n">
+        <v>200</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>16</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>18.60055923461914</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>18.60055923461914</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>0.01860055923461914</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>2.551078796386719e-05</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>0.011328125</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>0.0056640625</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2" t="n">
+        <v>9.775352478027344</v>
+      </c>
+      <c r="Z77" s="3" t="n">
+        <v>1090.4</v>
+      </c>
+      <c r="AA77" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>100</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>200</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>16</v>
+      </c>
+      <c r="N78" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>15.09292602539062</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>15.09292602539062</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>0.01509292602539062</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>1.668930053710938e-05</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2" t="n">
+        <v>9.469877004623413</v>
+      </c>
+      <c r="Z78" s="3" t="n">
+        <v>1020.8</v>
+      </c>
+      <c r="AA78" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>100</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>100</v>
+      </c>
+      <c r="K79" t="n">
+        <v>200</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>16</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>29.06075477600097</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>29.06075477600097</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>0.02906075477600097</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>1.978874206542969e-05</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>0.018125</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="2" t="n">
+        <v>10.27632474899292</v>
+      </c>
+      <c r="Z79" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA79" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>100</v>
+      </c>
+      <c r="K80" t="n">
+        <v>200</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>16</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>16.03825569152832</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>16.03825569152832</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>0.01603825569152832</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>1.835823059082031e-05</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2" t="n">
+        <v>9.679817676544189</v>
+      </c>
+      <c r="Z80" s="3" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="AA80" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>100</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>100</v>
+      </c>
+      <c r="K81" t="n">
+        <v>200</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>16</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>15.34588813781738</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>15.34588813781738</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>0.01534588813781738</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>1.9073486328125e-05</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="2" t="n">
+        <v>10.27914118766785</v>
+      </c>
+      <c r="Z81" s="3" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AA81" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>100</v>
+      </c>
+      <c r="K82" t="n">
+        <v>200</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>16</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8192</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>16.45095825195312</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>16.45095825195312</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>0.01645095825195312</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>1.859664916992188e-05</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>0.009062499999999999</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <v>0.00453125</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2" t="n">
+        <v>10.07739400863647</v>
+      </c>
+      <c r="Z82" s="3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AA82" s="3" t="n">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/[3070ti]result.xlsx
+++ b/[3070ti]result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC294"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27237,6 +27237,734 @@
         <v>0</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2</v>
+      </c>
+      <c r="D295" t="n">
+        <v>10</v>
+      </c>
+      <c r="E295" t="n">
+        <v>10</v>
+      </c>
+      <c r="F295" t="n">
+        <v>3</v>
+      </c>
+      <c r="G295" t="n">
+        <v>50</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>100</v>
+      </c>
+      <c r="K295" t="n">
+        <v>200</v>
+      </c>
+      <c r="L295" t="b">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N295" t="n">
+        <v>100</v>
+      </c>
+      <c r="O295" t="n">
+        <v>256</v>
+      </c>
+      <c r="P295" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
+        <v>8</v>
+      </c>
+      <c r="S295" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T295" s="1" t="n">
+        <v>40.37446797688803</v>
+      </c>
+      <c r="U295" s="1" t="n">
+        <v>13.95394086837769</v>
+      </c>
+      <c r="V295" s="1" t="n">
+        <v>0.1116315269470215</v>
+      </c>
+      <c r="W295" s="1" t="n">
+        <v>8.034706115722656e-05</v>
+      </c>
+      <c r="X295" s="1" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="Y295" s="1" t="n">
+        <v>0.03625</v>
+      </c>
+      <c r="Z295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA295" s="2" t="n">
+        <v>1.221457004547119</v>
+      </c>
+      <c r="AB295" s="3" t="n">
+        <v>742.4</v>
+      </c>
+      <c r="AC295" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>10</v>
+      </c>
+      <c r="E296" t="n">
+        <v>10</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3</v>
+      </c>
+      <c r="G296" t="n">
+        <v>50</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>100</v>
+      </c>
+      <c r="K296" t="n">
+        <v>200</v>
+      </c>
+      <c r="L296" t="b">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N296" t="n">
+        <v>100</v>
+      </c>
+      <c r="O296" t="n">
+        <v>600</v>
+      </c>
+      <c r="P296" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>5</v>
+      </c>
+      <c r="S296" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T296" s="1" t="n">
+        <v>29.42369191542915</v>
+      </c>
+      <c r="U296" s="1" t="n">
+        <v>17.55800247192383</v>
+      </c>
+      <c r="V296" s="1" t="n">
+        <v>0.08779001235961914</v>
+      </c>
+      <c r="W296" s="1" t="n">
+        <v>7.033348083496094e-05</v>
+      </c>
+      <c r="X296" s="1" t="n">
+        <v>0.056640625</v>
+      </c>
+      <c r="Y296" s="1" t="n">
+        <v>0.0283203125</v>
+      </c>
+      <c r="Z296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA296" s="2" t="n">
+        <v>1.223086357116699</v>
+      </c>
+      <c r="AB296" s="3" t="n">
+        <v>580</v>
+      </c>
+      <c r="AC296" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>10</v>
+      </c>
+      <c r="E297" t="n">
+        <v>10</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G297" t="n">
+        <v>50</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>100</v>
+      </c>
+      <c r="K297" t="n">
+        <v>200</v>
+      </c>
+      <c r="L297" t="b">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N297" t="n">
+        <v>100</v>
+      </c>
+      <c r="O297" t="n">
+        <v>256</v>
+      </c>
+      <c r="P297" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>9</v>
+      </c>
+      <c r="S297" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T297" s="1" t="n">
+        <v>51.1702262654024</v>
+      </c>
+      <c r="U297" s="1" t="n">
+        <v>17.50065485636394</v>
+      </c>
+      <c r="V297" s="1" t="n">
+        <v>0.1575058937072754</v>
+      </c>
+      <c r="W297" s="1" t="n">
+        <v>0.0001037120819091797</v>
+      </c>
+      <c r="X297" s="1" t="n">
+        <v>0.101953125</v>
+      </c>
+      <c r="Y297" s="1" t="n">
+        <v>0.05097656249999999</v>
+      </c>
+      <c r="Z297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="2" t="n">
+        <v>1.225745677947998</v>
+      </c>
+      <c r="AB297" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AC297" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>10</v>
+      </c>
+      <c r="E298" t="n">
+        <v>10</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3</v>
+      </c>
+      <c r="G298" t="n">
+        <v>50</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>100</v>
+      </c>
+      <c r="K298" t="n">
+        <v>200</v>
+      </c>
+      <c r="L298" t="b">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N298" t="n">
+        <v>100</v>
+      </c>
+      <c r="O298" t="n">
+        <v>256</v>
+      </c>
+      <c r="P298" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>9</v>
+      </c>
+      <c r="S298" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T298" s="1" t="n">
+        <v>50.4506430906408</v>
+      </c>
+      <c r="U298" s="1" t="n">
+        <v>17.42459932963054</v>
+      </c>
+      <c r="V298" s="1" t="n">
+        <v>0.1568213939666748</v>
+      </c>
+      <c r="W298" s="1" t="n">
+        <v>9.751319885253906e-05</v>
+      </c>
+      <c r="X298" s="1" t="n">
+        <v>0.101953125</v>
+      </c>
+      <c r="Y298" s="1" t="n">
+        <v>0.05097656249999999</v>
+      </c>
+      <c r="Z298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA298" s="2" t="n">
+        <v>1.224261045455933</v>
+      </c>
+      <c r="AB298" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AC298" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>2</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2</v>
+      </c>
+      <c r="D299" t="n">
+        <v>10</v>
+      </c>
+      <c r="E299" t="n">
+        <v>10</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3</v>
+      </c>
+      <c r="G299" t="n">
+        <v>50</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>100</v>
+      </c>
+      <c r="K299" t="n">
+        <v>200</v>
+      </c>
+      <c r="L299" t="b">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N299" t="n">
+        <v>100</v>
+      </c>
+      <c r="O299" t="n">
+        <v>256</v>
+      </c>
+      <c r="P299" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>7</v>
+      </c>
+      <c r="S299" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T299" s="1" t="n">
+        <v>32.62987295786539</v>
+      </c>
+      <c r="U299" s="1" t="n">
+        <v>10.87885856628418</v>
+      </c>
+      <c r="V299" s="1" t="n">
+        <v>0.07615200996398924</v>
+      </c>
+      <c r="W299" s="1" t="n">
+        <v>7.367134094238281e-05</v>
+      </c>
+      <c r="X299" s="1" t="n">
+        <v>0.047578125</v>
+      </c>
+      <c r="Y299" s="1" t="n">
+        <v>0.0237890625</v>
+      </c>
+      <c r="Z299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA299" s="2" t="n">
+        <v>1.223163843154907</v>
+      </c>
+      <c r="AB299" s="3" t="n">
+        <v>487.2</v>
+      </c>
+      <c r="AC299" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>2</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" t="n">
+        <v>10</v>
+      </c>
+      <c r="E300" t="n">
+        <v>10</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3</v>
+      </c>
+      <c r="G300" t="n">
+        <v>50</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>100</v>
+      </c>
+      <c r="K300" t="n">
+        <v>200</v>
+      </c>
+      <c r="L300" t="b">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N300" t="n">
+        <v>100</v>
+      </c>
+      <c r="O300" t="n">
+        <v>256</v>
+      </c>
+      <c r="P300" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>9</v>
+      </c>
+      <c r="S300" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T300" s="1" t="n">
+        <v>51.25487888560576</v>
+      </c>
+      <c r="U300" s="1" t="n">
+        <v>17.52092043558757</v>
+      </c>
+      <c r="V300" s="1" t="n">
+        <v>0.1576882839202881</v>
+      </c>
+      <c r="W300" s="1" t="n">
+        <v>0.0001018047332763672</v>
+      </c>
+      <c r="X300" s="1" t="n">
+        <v>0.101953125</v>
+      </c>
+      <c r="Y300" s="1" t="n">
+        <v>0.05097656249999999</v>
+      </c>
+      <c r="Z300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA300" s="2" t="n">
+        <v>1.225343465805054</v>
+      </c>
+      <c r="AB300" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AC300" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>10</v>
+      </c>
+      <c r="E301" t="n">
+        <v>10</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3</v>
+      </c>
+      <c r="G301" t="n">
+        <v>50</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>100</v>
+      </c>
+      <c r="K301" t="n">
+        <v>200</v>
+      </c>
+      <c r="L301" t="b">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N301" t="n">
+        <v>100</v>
+      </c>
+      <c r="O301" t="n">
+        <v>256</v>
+      </c>
+      <c r="P301" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
+        <v>9</v>
+      </c>
+      <c r="S301" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T301" s="1" t="n">
+        <v>51.34789298562442</v>
+      </c>
+      <c r="U301" s="1" t="n">
+        <v>17.51774152119955</v>
+      </c>
+      <c r="V301" s="1" t="n">
+        <v>0.1576596736907959</v>
+      </c>
+      <c r="W301" s="1" t="n">
+        <v>9.059906005859375e-05</v>
+      </c>
+      <c r="X301" s="1" t="n">
+        <v>0.101953125</v>
+      </c>
+      <c r="Y301" s="1" t="n">
+        <v>0.05097656249999999</v>
+      </c>
+      <c r="Z301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA301" s="2" t="n">
+        <v>1.224569797515869</v>
+      </c>
+      <c r="AB301" s="3" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AC301" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2</v>
+      </c>
+      <c r="D302" t="n">
+        <v>10</v>
+      </c>
+      <c r="E302" t="n">
+        <v>10</v>
+      </c>
+      <c r="F302" t="n">
+        <v>3</v>
+      </c>
+      <c r="G302" t="n">
+        <v>50</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>100</v>
+      </c>
+      <c r="K302" t="n">
+        <v>200</v>
+      </c>
+      <c r="L302" t="b">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N302" t="n">
+        <v>100</v>
+      </c>
+      <c r="O302" t="n">
+        <v>256</v>
+      </c>
+      <c r="P302" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>&lt;-parameter / result-&gt;</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>7</v>
+      </c>
+      <c r="S302" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T302" s="1" t="n">
+        <v>31.04332923889159</v>
+      </c>
+      <c r="U302" s="1" t="n">
+        <v>10.54476601736886</v>
+      </c>
+      <c r="V302" s="1" t="n">
+        <v>0.07381336212158202</v>
+      </c>
+      <c r="W302" s="1" t="n">
+        <v>7.486343383789062e-05</v>
+      </c>
+      <c r="X302" s="1" t="n">
+        <v>0.047578125</v>
+      </c>
+      <c r="Y302" s="1" t="n">
+        <v>0.0237890625</v>
+      </c>
+      <c r="Z302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA302" s="2" t="n">
+        <v>1.221666812896729</v>
+      </c>
+      <c r="AB302" s="3" t="n">
+        <v>487.2</v>
+      </c>
+      <c r="AC302" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
